--- a/biology/Médecine/Syndrome_de_Cogan/Syndrome_de_Cogan.xlsx
+++ b/biology/Médecine/Syndrome_de_Cogan/Syndrome_de_Cogan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Cogan se définit par l'association d'une kératite interstitielle à une atteinte audiovestibulaire. Il a été décrit en 1934 (ou 1945[1],[2]). Dans la plupart des cas, s'y associent d'autres manifestations de vascularite systémique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Cogan se définit par l'association d'une kératite interstitielle à une atteinte audiovestibulaire. Il a été décrit en 1934 (ou 1945,). Dans la plupart des cas, s'y associent d'autres manifestations de vascularite systémique.
 </t>
         </is>
       </c>
@@ -513,13 +525,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Symptômes oculaires
-La kératite interstitielle fait partie de la définition du syndrome. En général les deux yeux sont concernés, mais pas toujours en même temps et avec la même intensité. Il peut y avoir d'autres atteintes de chacune des parties de l'œil.
-Classiquement les symptômes surviennent brutalement, associant photophobie, larmoiement et douleurs oculaires[3].
-Symptômes auriculaires
-Syndrome vestibulaire net avec ou sans surdité associée. Celle-ci peut devenir complète et sévère.
-Autres atteintes
-Signes généraux : Fièvre, amaigrissement.
+          <t>Symptômes oculaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La kératite interstitielle fait partie de la définition du syndrome. En général les deux yeux sont concernés, mais pas toujours en même temps et avec la même intensité. Il peut y avoir d'autres atteintes de chacune des parties de l'œil.
+Classiquement les symptômes surviennent brutalement, associant photophobie, larmoiement et douleurs oculaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Manifestations cliniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Symptômes auriculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Syndrome vestibulaire net avec ou sans surdité associée. Celle-ci peut devenir complète et sévère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Manifestations cliniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres atteintes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Signes généraux : Fièvre, amaigrissement.
 Signes neurologiques : Multinévrite variable. Épilepsie, syndrome cérébelleux, myélopathie, syndrome pyramidal (hémiplégie), encéphalite avec coma, sont possibles.
 Signes cardiovasculaires : Insuffisance aortique, sténoses artérielles localisées avec thrombose.
 Signes digestifs : Diarrhées, rectorrhagies, melæna.
@@ -528,31 +615,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Cogan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Signes paracliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Syndrome inflammatoire biologique.
 Hyperleucocytose.
@@ -560,31 +649,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Cogan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'affection évolue par poussées, mais peut devenir lentement chronique.
 Le pronostic fonctionnel est surtout aux yeux et aux oreilles.
@@ -592,31 +683,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Cogan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Étiopathogénie et nosologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le rôle déclenchant d'une infection à Chlamydia a été évoqué.
 L'intervention d'un processus immunitaire à médiation cellulaire reste l'hypothèse la plus étayée.
@@ -624,31 +717,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Cogan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Une atteinte purement oculaire ou audio-labyrinthique au début peut orienter vers des affections isolées.
 Devant une atteinte "œil-oreille" doivent être évoqués :
@@ -659,31 +754,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Cogan</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cogan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Tous les traitements symptomatiques sont les bienvenus.
 Les conséquences des complications seront prises en charge (Insuffisance aortique ....).
